--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/ccp/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2067229C-58B2-BF45-8F3E-E426FC4FA108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F267432-37C5-0444-80BB-6FF15700B24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,74 @@
   </si>
   <si>
     <t>Exam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 - 59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90 - 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80 - 89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70 - 79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 - 69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
@@ -552,100 +622,154 @@
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1">
         <f xml:space="preserve"> ROUND((B2 * 1), 2)</f>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1">
-        <f>C2 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>111</v>
+        <f>C2 + (IF($C$29 &lt; 75.04, 75.04, $C$29) - $C$29)</f>
+        <v>98</v>
       </c>
       <c r="E2" s="1">
-        <f>IF(AND(OR(B2=100), D2&gt;99.49), 100, IF(AND(B2&lt;100, D2&gt;99.49), 99,  IF(OR(AND(D2&gt;49.9, D2&lt;=59.49), D2&gt;=59.5), IF(D2&gt;=59.5, IF(D2+1&gt;99.49, 99, D2+1), 60), IF(OR(B2=0), 0, D2))))</f>
+        <f>IF(D2&lt;&gt;"", IF(MAX(D:D)&lt;99, D2+(99-MAX(D:D)), D2), "")</f>
         <v>99</v>
       </c>
       <c r="F2" s="1">
-        <f>ROUND(E2,0)</f>
+        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
         <v>99</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f>IF(F2&gt;=92, "A+", IF(F2&gt;=86, "A", IF(F2&gt;=80, "A-", IF(F2&gt;=76, "B+", IF(F2&gt;=72, "B", IF(F2&gt;=68, "B-", IF(F2&gt;=64, "C+", IF(F2&gt;=61, "C", IF(F2&gt;=60, "C-", "F")))))))))</f>
+      <c r="G2" s="1">
+        <f>ROUND(F2,0)</f>
+        <v>99</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>IF(G2&gt;=92, "A+", IF(G2&gt;=86, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=76, "B+", IF(G2&gt;=72, "B", IF(G2&gt;=68, "B-", IF(G2&gt;=64, "C+", IF(G2&gt;=61, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="I2" s="4"/>
+      <c r="J2" s="1">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1">
+        <f>COUNTIF(G2:G28, "&gt;=100")</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>ROUND(K2/SUM($K$2:$K$7), 2) * 100 &amp; "%"</f>
+        <v>0%</v>
+      </c>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1">
         <f xml:space="preserve"> ROUND((B3 * 1), 2)</f>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1">
-        <f>C3 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>109</v>
+        <f t="shared" ref="D3:D28" si="0">C3 + (IF($C$29 &lt; 75.04, 75.04, $C$29) - $C$29)</f>
+        <v>95</v>
       </c>
       <c r="E3" s="1">
-        <f>IF(AND(OR(B3=100), D3&gt;99.49), 100, IF(AND(B3&lt;100, D3&gt;99.49), 99,  IF(OR(AND(D3&gt;49.9, D3&lt;=59.49), D3&gt;=59.5), IF(D3&gt;=59.5, IF(D3+1&gt;99.49, 99, D3+1), 60), IF(OR(B3=0), 0, D3))))</f>
-        <v>99</v>
+        <f t="shared" ref="E3:E28" si="1">IF(D3&lt;&gt;"", IF(MAX(D:D)&lt;99, D3+(99-MAX(D:D)), D3), "")</f>
+        <v>96</v>
       </c>
       <c r="F3" s="1">
-        <f>ROUND(E3,0)</f>
-        <v>99</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f>IF(F3&gt;=92, "A+", IF(F3&gt;=86, "A", IF(F3&gt;=80, "A-", IF(F3&gt;=76, "B+", IF(F3&gt;=72, "B", IF(F3&gt;=68, "B-", IF(F3&gt;=64, "C+", IF(F3&gt;=61, "C", IF(F3&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" ref="F3:F28" si="2">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
+        <v>97</v>
+      </c>
+      <c r="G3" s="1">
+        <f>ROUND(F3,0)</f>
+        <v>97</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>IF(G3&gt;=92, "A+", IF(G3&gt;=86, "A", IF(G3&gt;=80, "A-", IF(G3&gt;=76, "B+", IF(G3&gt;=72, "B", IF(G3&gt;=68, "B-", IF(G3&gt;=64, "C+", IF(G3&gt;=61, "C", IF(G3&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="1">
+        <f>COUNTIFS(G2:G28, "&gt;=90", G2:G28, "&lt;100")</f>
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f>ROUND(K3/SUM($K$2:$K$7), 2) * 100 &amp; "%"</f>
+        <v>19%</v>
       </c>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1">
         <f xml:space="preserve"> ROUND((B4 * 1), 2)</f>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1">
-        <f>C4 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>102</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="E4" s="1">
-        <f>IF(AND(OR(B4=100), D4&gt;99.49), 100, IF(AND(B4&lt;100, D4&gt;99.49), 99,  IF(OR(AND(D4&gt;49.9, D4&lt;=59.49), D4&gt;=59.5), IF(D4&gt;=59.5, IF(D4+1&gt;99.49, 99, D4+1), 60), IF(OR(B4=0), 0, D4))))</f>
-        <v>99</v>
+        <f t="shared" si="1"/>
+        <v>91</v>
       </c>
       <c r="F4" s="1">
-        <f>ROUND(E4,0)</f>
-        <v>99</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f>IF(F4&gt;=92, "A+", IF(F4&gt;=86, "A", IF(F4&gt;=80, "A-", IF(F4&gt;=76, "B+", IF(F4&gt;=72, "B", IF(F4&gt;=68, "B-", IF(F4&gt;=64, "C+", IF(F4&gt;=61, "C", IF(F4&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="G4" s="1">
+        <f>ROUND(F4,0)</f>
+        <v>92</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>IF(G4&gt;=92, "A+", IF(G4&gt;=86, "A", IF(G4&gt;=80, "A-", IF(G4&gt;=76, "B+", IF(G4&gt;=72, "B", IF(G4&gt;=68, "B-", IF(G4&gt;=64, "C+", IF(G4&gt;=61, "C", IF(G4&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="1">
+        <f>COUNTIFS(G2:G28, "&gt;=80", G2:G28, "&lt;90")</f>
+        <v>7</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>ROUND(K4/SUM($K$2:$K$7), 2) * 100 &amp; "%"</f>
+        <v>26%</v>
       </c>
       <c r="O4" s="3"/>
     </row>
@@ -654,27 +778,42 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1">
         <f xml:space="preserve"> ROUND((B5 * 1), 2)</f>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1">
-        <f>C5 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>88</v>
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
       <c r="E5" s="1">
-        <f>IF(AND(OR(B5=100), D5&gt;99.49), 100, IF(AND(B5&lt;100, D5&gt;99.49), 99,  IF(OR(AND(D5&gt;49.9, D5&lt;=59.49), D5&gt;=59.5), IF(D5&gt;=59.5, IF(D5+1&gt;99.49, 99, D5+1), 60), IF(OR(B5=0), 0, D5))))</f>
-        <v>89</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="F5" s="1">
-        <f>ROUND(E5,0)</f>
-        <v>89</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <f>IF(F5&gt;=92, "A+", IF(F5&gt;=86, "A", IF(F5&gt;=80, "A-", IF(F5&gt;=76, "B+", IF(F5&gt;=72, "B", IF(F5&gt;=68, "B-", IF(F5&gt;=64, "C+", IF(F5&gt;=61, "C", IF(F5&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="G5" s="1">
+        <f>ROUND(F5,0)</f>
+        <v>91</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f>IF(G5&gt;=92, "A+", IF(G5&gt;=86, "A", IF(G5&gt;=80, "A-", IF(G5&gt;=76, "B+", IF(G5&gt;=72, "B", IF(G5&gt;=68, "B-", IF(G5&gt;=64, "C+", IF(G5&gt;=61, "C", IF(G5&gt;=60, "C-", "F")))))))))</f>
         <v>A</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="1">
+        <f>COUNTIFS(G2:G28, "&gt;=70", G2:G28, "&lt;80")</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>ROUND(K5/SUM($K$2:$K$7), 2) * 100 &amp; "%"</f>
+        <v>22%</v>
       </c>
       <c r="O5" s="3"/>
     </row>
@@ -683,27 +822,42 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1">
         <f xml:space="preserve"> ROUND((B6 * 1), 2)</f>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1">
-        <f>C6 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>88</v>
+        <f t="shared" si="0"/>
+        <v>89</v>
       </c>
       <c r="E6" s="1">
-        <f>IF(AND(OR(B6=100), D6&gt;99.49), 100, IF(AND(B6&lt;100, D6&gt;99.49), 99,  IF(OR(AND(D6&gt;49.9, D6&lt;=59.49), D6&gt;=59.5), IF(D6&gt;=59.5, IF(D6+1&gt;99.49, 99, D6+1), 60), IF(OR(B6=0), 0, D6))))</f>
-        <v>89</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="F6" s="1">
-        <f>ROUND(E6,0)</f>
-        <v>89</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <f>IF(F6&gt;=92, "A+", IF(F6&gt;=86, "A", IF(F6&gt;=80, "A-", IF(F6&gt;=76, "B+", IF(F6&gt;=72, "B", IF(F6&gt;=68, "B-", IF(F6&gt;=64, "C+", IF(F6&gt;=61, "C", IF(F6&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="G6" s="1">
+        <f>ROUND(F6,0)</f>
+        <v>91</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>IF(G6&gt;=92, "A+", IF(G6&gt;=86, "A", IF(G6&gt;=80, "A-", IF(G6&gt;=76, "B+", IF(G6&gt;=72, "B", IF(G6&gt;=68, "B-", IF(G6&gt;=64, "C+", IF(G6&gt;=61, "C", IF(G6&gt;=60, "C-", "F")))))))))</f>
         <v>A</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1">
+        <f>COUNTIFS(G2:G28, "&gt;=60", G2:G28, "&lt;70")</f>
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f>ROUND(K6/SUM($K$2:$K$7), 2) * 100 &amp; "%"</f>
+        <v>33%</v>
       </c>
       <c r="O6" s="3"/>
     </row>
@@ -712,27 +866,42 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1">
         <f xml:space="preserve"> ROUND((B7 * 1), 2)</f>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1">
-        <f>C7 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>85</v>
+        <f t="shared" si="0"/>
+        <v>86</v>
       </c>
       <c r="E7" s="1">
-        <f>IF(AND(OR(B7=100), D7&gt;99.49), 100, IF(AND(B7&lt;100, D7&gt;99.49), 99,  IF(OR(AND(D7&gt;49.9, D7&lt;=59.49), D7&gt;=59.5), IF(D7&gt;=59.5, IF(D7+1&gt;99.49, 99, D7+1), 60), IF(OR(B7=0), 0, D7))))</f>
-        <v>86</v>
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
       <c r="F7" s="1">
-        <f>ROUND(E7,0)</f>
-        <v>86</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f>IF(F7&gt;=92, "A+", IF(F7&gt;=86, "A", IF(F7&gt;=80, "A-", IF(F7&gt;=76, "B+", IF(F7&gt;=72, "B", IF(F7&gt;=68, "B-", IF(F7&gt;=64, "C+", IF(F7&gt;=61, "C", IF(F7&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="G7" s="1">
+        <f>ROUND(F7,0)</f>
+        <v>88</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>IF(G7&gt;=92, "A+", IF(G7&gt;=86, "A", IF(G7&gt;=80, "A-", IF(G7&gt;=76, "B+", IF(G7&gt;=72, "B", IF(G7&gt;=68, "B-", IF(G7&gt;=64, "C+", IF(G7&gt;=61, "C", IF(G7&gt;=60, "C-", "F")))))))))</f>
         <v>A</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1">
+        <f>COUNTIFS(G2:G28, "&gt;=0", G2:G28, "&lt;60")</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f>ROUND(K7/SUM($K$2:$K$7), 2) * 100 &amp; "%"</f>
+        <v>0%</v>
       </c>
       <c r="O7" s="3"/>
     </row>
@@ -741,27 +910,31 @@
         <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1">
         <f xml:space="preserve"> ROUND((B8 * 1), 2)</f>
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1">
-        <f>C8 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>84</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
       <c r="E8" s="1">
-        <f>IF(AND(OR(B8=100), D8&gt;99.49), 100, IF(AND(B8&lt;100, D8&gt;99.49), 99,  IF(OR(AND(D8&gt;49.9, D8&lt;=59.49), D8&gt;=59.5), IF(D8&gt;=59.5, IF(D8+1&gt;99.49, 99, D8+1), 60), IF(OR(B8=0), 0, D8))))</f>
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>86</v>
       </c>
       <c r="F8" s="1">
-        <f>ROUND(E8,0)</f>
-        <v>85</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f>IF(F8&gt;=92, "A+", IF(F8&gt;=86, "A", IF(F8&gt;=80, "A-", IF(F8&gt;=76, "B+", IF(F8&gt;=72, "B", IF(F8&gt;=68, "B-", IF(F8&gt;=64, "C+", IF(F8&gt;=61, "C", IF(F8&gt;=60, "C-", "F")))))))))</f>
-        <v>A-</v>
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="G8" s="1">
+        <f>ROUND(F8,0)</f>
+        <v>87</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>IF(G8&gt;=92, "A+", IF(G8&gt;=86, "A", IF(G8&gt;=80, "A-", IF(G8&gt;=76, "B+", IF(G8&gt;=72, "B", IF(G8&gt;=68, "B-", IF(G8&gt;=64, "C+", IF(G8&gt;=61, "C", IF(G8&gt;=60, "C-", "F")))))))))</f>
+        <v>A</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -769,27 +942,40 @@
         <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1">
         <f xml:space="preserve"> ROUND((B9 * 1), 2)</f>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1">
-        <f>C9 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>84</v>
       </c>
       <c r="E9" s="1">
-        <f>IF(AND(OR(B9=100), D9&gt;99.49), 100, IF(AND(B9&lt;100, D9&gt;99.49), 99,  IF(OR(AND(D9&gt;49.9, D9&lt;=59.49), D9&gt;=59.5), IF(D9&gt;=59.5, IF(D9+1&gt;99.49, 99, D9+1), 60), IF(OR(B9=0), 0, D9))))</f>
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="F9" s="1">
-        <f>ROUND(E9,0)</f>
-        <v>84</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f>IF(F9&gt;=92, "A+", IF(F9&gt;=86, "A", IF(F9&gt;=80, "A-", IF(F9&gt;=76, "B+", IF(F9&gt;=72, "B", IF(F9&gt;=68, "B-", IF(F9&gt;=64, "C+", IF(F9&gt;=61, "C", IF(F9&gt;=60, "C-", "F")))))))))</f>
-        <v>A-</v>
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="G9" s="1">
+        <f>ROUND(F9,0)</f>
+        <v>86</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>IF(G9&gt;=92, "A+", IF(G9&gt;=86, "A", IF(G9&gt;=80, "A-", IF(G9&gt;=76, "B+", IF(G9&gt;=72, "B", IF(G9&gt;=68, "B-", IF(G9&gt;=64, "C+", IF(G9&gt;=61, "C", IF(G9&gt;=60, "C-", "F")))))))))</f>
+        <v>A</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -799,27 +985,42 @@
         <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C10" s="1">
         <f xml:space="preserve"> ROUND((B10 * 1), 2)</f>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1">
-        <f>C10 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>82</v>
+        <f t="shared" si="0"/>
+        <v>83</v>
       </c>
       <c r="E10" s="1">
-        <f>IF(AND(OR(B10=100), D10&gt;99.49), 100, IF(AND(B10&lt;100, D10&gt;99.49), 99,  IF(OR(AND(D10&gt;49.9, D10&lt;=59.49), D10&gt;=59.5), IF(D10&gt;=59.5, IF(D10+1&gt;99.49, 99, D10+1), 60), IF(OR(B10=0), 0, D10))))</f>
-        <v>83</v>
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="F10" s="1">
-        <f>ROUND(E10,0)</f>
-        <v>83</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f>IF(F10&gt;=92, "A+", IF(F10&gt;=86, "A", IF(F10&gt;=80, "A-", IF(F10&gt;=76, "B+", IF(F10&gt;=72, "B", IF(F10&gt;=68, "B-", IF(F10&gt;=64, "C+", IF(F10&gt;=61, "C", IF(F10&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="G10" s="1">
+        <f>ROUND(F10,0)</f>
+        <v>85</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>IF(G10&gt;=92, "A+", IF(G10&gt;=86, "A", IF(G10&gt;=80, "A-", IF(G10&gt;=76, "B+", IF(G10&gt;=72, "B", IF(G10&gt;=68, "B-", IF(G10&gt;=64, "C+", IF(G10&gt;=61, "C", IF(G10&gt;=60, "C-", "F")))))))))</f>
         <v>A-</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1">
+        <f>COUNTIF(H2:H28, J10)</f>
+        <v>3</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f>ROUND(K10/SUM($K$10:$K$19), 2) * 100 &amp; "%"</f>
+        <v>11%</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -828,27 +1029,42 @@
         <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1">
         <f xml:space="preserve"> ROUND((B11 * 1), 2)</f>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1">
-        <f>C11 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>81</v>
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
       <c r="E11" s="1">
-        <f>IF(AND(OR(B11=100), D11&gt;99.49), 100, IF(AND(B11&lt;100, D11&gt;99.49), 99,  IF(OR(AND(D11&gt;49.9, D11&lt;=59.49), D11&gt;=59.5), IF(D11&gt;=59.5, IF(D11+1&gt;99.49, 99, D11+1), 60), IF(OR(B11=0), 0, D11))))</f>
-        <v>82</v>
+        <f t="shared" si="1"/>
+        <v>83</v>
       </c>
       <c r="F11" s="1">
-        <f>ROUND(E11,0)</f>
-        <v>82</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f>IF(F11&gt;=92, "A+", IF(F11&gt;=86, "A", IF(F11&gt;=80, "A-", IF(F11&gt;=76, "B+", IF(F11&gt;=72, "B", IF(F11&gt;=68, "B-", IF(F11&gt;=64, "C+", IF(F11&gt;=61, "C", IF(F11&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="G11" s="1">
+        <f>ROUND(F11,0)</f>
+        <v>84</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>IF(G11&gt;=92, "A+", IF(G11&gt;=86, "A", IF(G11&gt;=80, "A-", IF(G11&gt;=76, "B+", IF(G11&gt;=72, "B", IF(G11&gt;=68, "B-", IF(G11&gt;=64, "C+", IF(G11&gt;=61, "C", IF(G11&gt;=60, "C-", "F")))))))))</f>
         <v>A-</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11:K19" si="3">COUNTIF(H3:H29, J11)</f>
+        <v>5</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f t="shared" ref="L11:L19" si="4">ROUND(K11/SUM($K$10:$K$19), 2) * 100 &amp; "%"</f>
+        <v>18%</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -857,27 +1073,42 @@
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1">
         <f xml:space="preserve"> ROUND((B12 * 1), 2)</f>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1">
-        <f>C12 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>79</v>
       </c>
       <c r="E12" s="1">
-        <f>IF(AND(OR(B12=100), D12&gt;99.49), 100, IF(AND(B12&lt;100, D12&gt;99.49), 99,  IF(OR(AND(D12&gt;49.9, D12&lt;=59.49), D12&gt;=59.5), IF(D12&gt;=59.5, IF(D12+1&gt;99.49, 99, D12+1), 60), IF(OR(B12=0), 0, D12))))</f>
-        <v>79</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="F12" s="1">
-        <f>ROUND(E12,0)</f>
-        <v>79</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f>IF(F12&gt;=92, "A+", IF(F12&gt;=86, "A", IF(F12&gt;=80, "A-", IF(F12&gt;=76, "B+", IF(F12&gt;=72, "B", IF(F12&gt;=68, "B-", IF(F12&gt;=64, "C+", IF(F12&gt;=61, "C", IF(F12&gt;=60, "C-", "F")))))))))</f>
-        <v>B+</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="G12" s="1">
+        <f>ROUND(F12,0)</f>
+        <v>81</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f>IF(G12&gt;=92, "A+", IF(G12&gt;=86, "A", IF(G12&gt;=80, "A-", IF(G12&gt;=76, "B+", IF(G12&gt;=72, "B", IF(G12&gt;=68, "B-", IF(G12&gt;=64, "C+", IF(G12&gt;=61, "C", IF(G12&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>14%</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -886,27 +1117,42 @@
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1">
         <f xml:space="preserve"> ROUND((B13 * 1), 2)</f>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1">
-        <f>C13 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>77</v>
+        <f t="shared" si="0"/>
+        <v>78</v>
       </c>
       <c r="E13" s="1">
-        <f>IF(AND(OR(B13=100), D13&gt;99.49), 100, IF(AND(B13&lt;100, D13&gt;99.49), 99,  IF(OR(AND(D13&gt;49.9, D13&lt;=59.49), D13&gt;=59.5), IF(D13&gt;=59.5, IF(D13+1&gt;99.49, 99, D13+1), 60), IF(OR(B13=0), 0, D13))))</f>
-        <v>78</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="F13" s="1">
-        <f>ROUND(E13,0)</f>
-        <v>78</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f>IF(F13&gt;=92, "A+", IF(F13&gt;=86, "A", IF(F13&gt;=80, "A-", IF(F13&gt;=76, "B+", IF(F13&gt;=72, "B", IF(F13&gt;=68, "B-", IF(F13&gt;=64, "C+", IF(F13&gt;=61, "C", IF(F13&gt;=60, "C-", "F")))))))))</f>
-        <v>B+</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G13" s="1">
+        <f>ROUND(F13,0)</f>
+        <v>80</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f>IF(G13&gt;=92, "A+", IF(G13&gt;=86, "A", IF(G13&gt;=80, "A-", IF(G13&gt;=76, "B+", IF(G13&gt;=72, "B", IF(G13&gt;=68, "B-", IF(G13&gt;=64, "C+", IF(G13&gt;=61, "C", IF(G13&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>7%</v>
       </c>
       <c r="O13" s="3"/>
     </row>
@@ -915,27 +1161,42 @@
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1">
         <f xml:space="preserve"> ROUND((B14 * 1), 2)</f>
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1">
-        <f>C14 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>73</v>
+        <f t="shared" si="0"/>
+        <v>74</v>
       </c>
       <c r="E14" s="1">
-        <f>IF(AND(OR(B14=100), D14&gt;99.49), 100, IF(AND(B14&lt;100, D14&gt;99.49), 99,  IF(OR(AND(D14&gt;49.9, D14&lt;=59.49), D14&gt;=59.5), IF(D14&gt;=59.5, IF(D14+1&gt;99.49, 99, D14+1), 60), IF(OR(B14=0), 0, D14))))</f>
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="F14" s="1">
-        <f>ROUND(E14,0)</f>
-        <v>74</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f>IF(F14&gt;=92, "A+", IF(F14&gt;=86, "A", IF(F14&gt;=80, "A-", IF(F14&gt;=76, "B+", IF(F14&gt;=72, "B", IF(F14&gt;=68, "B-", IF(F14&gt;=64, "C+", IF(F14&gt;=61, "C", IF(F14&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="G14" s="1">
+        <f>ROUND(F14,0)</f>
+        <v>76</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>IF(G14&gt;=92, "A+", IF(G14&gt;=86, "A", IF(G14&gt;=80, "A-", IF(G14&gt;=76, "B+", IF(G14&gt;=72, "B", IF(G14&gt;=68, "B-", IF(G14&gt;=64, "C+", IF(G14&gt;=61, "C", IF(G14&gt;=60, "C-", "F")))))))))</f>
+        <v>B+</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>14%</v>
       </c>
       <c r="O14" s="3"/>
     </row>
@@ -944,27 +1205,42 @@
         <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1">
         <f xml:space="preserve"> ROUND((B15 * 1), 2)</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1">
-        <f>C15 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>72</v>
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
       <c r="E15" s="1">
-        <f>IF(AND(OR(B15=100), D15&gt;99.49), 100, IF(AND(B15&lt;100, D15&gt;99.49), 99,  IF(OR(AND(D15&gt;49.9, D15&lt;=59.49), D15&gt;=59.5), IF(D15&gt;=59.5, IF(D15+1&gt;99.49, 99, D15+1), 60), IF(OR(B15=0), 0, D15))))</f>
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="F15" s="1">
-        <f>ROUND(E15,0)</f>
-        <v>73</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f>IF(F15&gt;=92, "A+", IF(F15&gt;=86, "A", IF(F15&gt;=80, "A-", IF(F15&gt;=76, "B+", IF(F15&gt;=72, "B", IF(F15&gt;=68, "B-", IF(F15&gt;=64, "C+", IF(F15&gt;=61, "C", IF(F15&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G15" s="1">
+        <f>ROUND(F15,0)</f>
+        <v>75</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>IF(G15&gt;=92, "A+", IF(G15&gt;=86, "A", IF(G15&gt;=80, "A-", IF(G15&gt;=76, "B+", IF(G15&gt;=72, "B", IF(G15&gt;=68, "B-", IF(G15&gt;=64, "C+", IF(G15&gt;=61, "C", IF(G15&gt;=60, "C-", "F")))))))))</f>
         <v>B</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>11%</v>
       </c>
       <c r="O15" s="3"/>
     </row>
@@ -973,27 +1249,42 @@
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1">
         <f xml:space="preserve"> ROUND((B16 * 1), 2)</f>
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1">
-        <f>C16 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>72</v>
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
       <c r="E16" s="1">
-        <f>IF(AND(OR(B16=100), D16&gt;99.49), 100, IF(AND(B16&lt;100, D16&gt;99.49), 99,  IF(OR(AND(D16&gt;49.9, D16&lt;=59.49), D16&gt;=59.5), IF(D16&gt;=59.5, IF(D16+1&gt;99.49, 99, D16+1), 60), IF(OR(B16=0), 0, D16))))</f>
-        <v>73</v>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="F16" s="1">
-        <f>ROUND(E16,0)</f>
-        <v>73</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f>IF(F16&gt;=92, "A+", IF(F16&gt;=86, "A", IF(F16&gt;=80, "A-", IF(F16&gt;=76, "B+", IF(F16&gt;=72, "B", IF(F16&gt;=68, "B-", IF(F16&gt;=64, "C+", IF(F16&gt;=61, "C", IF(F16&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="G16" s="1">
+        <f>ROUND(F16,0)</f>
+        <v>75</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f>IF(G16&gt;=92, "A+", IF(G16&gt;=86, "A", IF(G16&gt;=80, "A-", IF(G16&gt;=76, "B+", IF(G16&gt;=72, "B", IF(G16&gt;=68, "B-", IF(G16&gt;=64, "C+", IF(G16&gt;=61, "C", IF(G16&gt;=60, "C-", "F")))))))))</f>
         <v>B</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>14%</v>
       </c>
       <c r="O16" s="3"/>
     </row>
@@ -1002,27 +1293,42 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1">
         <f xml:space="preserve"> ROUND((B17 * 1), 2)</f>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f>C17 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>69</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="E17" s="1">
-        <f>IF(AND(OR(B17=100), D17&gt;99.49), 100, IF(AND(B17&lt;100, D17&gt;99.49), 99,  IF(OR(AND(D17&gt;49.9, D17&lt;=59.49), D17&gt;=59.5), IF(D17&gt;=59.5, IF(D17+1&gt;99.49, 99, D17+1), 60), IF(OR(B17=0), 0, D17))))</f>
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="F17" s="1">
-        <f>ROUND(E17,0)</f>
-        <v>70</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f>IF(F17&gt;=92, "A+", IF(F17&gt;=86, "A", IF(F17&gt;=80, "A-", IF(F17&gt;=76, "B+", IF(F17&gt;=72, "B", IF(F17&gt;=68, "B-", IF(F17&gt;=64, "C+", IF(F17&gt;=61, "C", IF(F17&gt;=60, "C-", "F")))))))))</f>
-        <v>B-</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="G17" s="1">
+        <f>ROUND(F17,0)</f>
+        <v>72</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f>IF(G17&gt;=92, "A+", IF(G17&gt;=86, "A", IF(G17&gt;=80, "A-", IF(G17&gt;=76, "B+", IF(G17&gt;=72, "B", IF(G17&gt;=68, "B-", IF(G17&gt;=64, "C+", IF(G17&gt;=61, "C", IF(G17&gt;=60, "C-", "F")))))))))</f>
+        <v>B</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>4%</v>
       </c>
       <c r="O17" s="3"/>
     </row>
@@ -1031,27 +1337,42 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1">
         <f xml:space="preserve"> ROUND((B18 * 1), 2)</f>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1">
-        <f>C18 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>69</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="E18" s="1">
-        <f>IF(AND(OR(B18=100), D18&gt;99.49), 100, IF(AND(B18&lt;100, D18&gt;99.49), 99,  IF(OR(AND(D18&gt;49.9, D18&lt;=59.49), D18&gt;=59.5), IF(D18&gt;=59.5, IF(D18+1&gt;99.49, 99, D18+1), 60), IF(OR(B18=0), 0, D18))))</f>
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="F18" s="1">
-        <f>ROUND(E18,0)</f>
-        <v>70</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f>IF(F18&gt;=92, "A+", IF(F18&gt;=86, "A", IF(F18&gt;=80, "A-", IF(F18&gt;=76, "B+", IF(F18&gt;=72, "B", IF(F18&gt;=68, "B-", IF(F18&gt;=64, "C+", IF(F18&gt;=61, "C", IF(F18&gt;=60, "C-", "F")))))))))</f>
-        <v>B-</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="G18" s="1">
+        <f>ROUND(F18,0)</f>
+        <v>72</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f>IF(G18&gt;=92, "A+", IF(G18&gt;=86, "A", IF(G18&gt;=80, "A-", IF(G18&gt;=76, "B+", IF(G18&gt;=72, "B", IF(G18&gt;=68, "B-", IF(G18&gt;=64, "C+", IF(G18&gt;=61, "C", IF(G18&gt;=60, "C-", "F")))))))))</f>
+        <v>B</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>7%</v>
       </c>
       <c r="O18" s="3"/>
     </row>
@@ -1060,27 +1381,42 @@
         <v>24</v>
       </c>
       <c r="B19" s="1">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1">
         <f xml:space="preserve"> ROUND((B19 * 1), 2)</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f>C19 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>68</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="E19" s="1">
-        <f>IF(AND(OR(B19=100), D19&gt;99.49), 100, IF(AND(B19&lt;100, D19&gt;99.49), 99,  IF(OR(AND(D19&gt;49.9, D19&lt;=59.49), D19&gt;=59.5), IF(D19&gt;=59.5, IF(D19+1&gt;99.49, 99, D19+1), 60), IF(OR(B19=0), 0, D19))))</f>
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="F19" s="1">
-        <f>ROUND(E19,0)</f>
-        <v>69</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f>IF(F19&gt;=92, "A+", IF(F19&gt;=86, "A", IF(F19&gt;=80, "A-", IF(F19&gt;=76, "B+", IF(F19&gt;=72, "B", IF(F19&gt;=68, "B-", IF(F19&gt;=64, "C+", IF(F19&gt;=61, "C", IF(F19&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="G19" s="1">
+        <f>ROUND(F19,0)</f>
+        <v>71</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>IF(G19&gt;=92, "A+", IF(G19&gt;=86, "A", IF(G19&gt;=80, "A-", IF(G19&gt;=76, "B+", IF(G19&gt;=72, "B", IF(G19&gt;=68, "B-", IF(G19&gt;=64, "C+", IF(G19&gt;=61, "C", IF(G19&gt;=60, "C-", "F")))))))))</f>
         <v>B-</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>0%</v>
       </c>
       <c r="O19" s="3"/>
     </row>
@@ -1089,27 +1425,31 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1">
         <f xml:space="preserve"> ROUND((B20 * 1), 2)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1">
-        <f>C20 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
       <c r="E20" s="1">
-        <f>IF(AND(OR(B20=100), D20&gt;99.49), 100, IF(AND(B20&lt;100, D20&gt;99.49), 99,  IF(OR(AND(D20&gt;49.9, D20&lt;=59.49), D20&gt;=59.5), IF(D20&gt;=59.5, IF(D20+1&gt;99.49, 99, D20+1), 60), IF(OR(B20=0), 0, D20))))</f>
-        <v>67</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="F20" s="1">
-        <f>ROUND(E20,0)</f>
-        <v>67</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f>IF(F20&gt;=92, "A+", IF(F20&gt;=86, "A", IF(F20&gt;=80, "A-", IF(F20&gt;=76, "B+", IF(F20&gt;=72, "B", IF(F20&gt;=68, "B-", IF(F20&gt;=64, "C+", IF(F20&gt;=61, "C", IF(F20&gt;=60, "C-", "F")))))))))</f>
-        <v>C+</v>
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="G20" s="1">
+        <f>ROUND(F20,0)</f>
+        <v>69</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>IF(G20&gt;=92, "A+", IF(G20&gt;=86, "A", IF(G20&gt;=80, "A-", IF(G20&gt;=76, "B+", IF(G20&gt;=72, "B", IF(G20&gt;=68, "B-", IF(G20&gt;=64, "C+", IF(G20&gt;=61, "C", IF(G20&gt;=60, "C-", "F")))))))))</f>
+        <v>B-</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1117,27 +1457,31 @@
         <v>28</v>
       </c>
       <c r="B21" s="1">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1">
         <f xml:space="preserve"> ROUND((B21 * 1), 2)</f>
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1">
-        <f>C21 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="E21" s="1">
-        <f>IF(AND(OR(B21=100), D21&gt;99.49), 100, IF(AND(B21&lt;100, D21&gt;99.49), 99,  IF(OR(AND(D21&gt;49.9, D21&lt;=59.49), D21&gt;=59.5), IF(D21&gt;=59.5, IF(D21+1&gt;99.49, 99, D21+1), 60), IF(OR(B21=0), 0, D21))))</f>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
       <c r="F21" s="1">
-        <f>ROUND(E21,0)</f>
-        <v>65</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f>IF(F21&gt;=92, "A+", IF(F21&gt;=86, "A", IF(F21&gt;=80, "A-", IF(F21&gt;=76, "B+", IF(F21&gt;=72, "B", IF(F21&gt;=68, "B-", IF(F21&gt;=64, "C+", IF(F21&gt;=61, "C", IF(F21&gt;=60, "C-", "F")))))))))</f>
-        <v>C+</v>
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="G21" s="1">
+        <f>ROUND(F21,0)</f>
+        <v>68</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f>IF(G21&gt;=92, "A+", IF(G21&gt;=86, "A", IF(G21&gt;=80, "A-", IF(G21&gt;=76, "B+", IF(G21&gt;=72, "B", IF(G21&gt;=68, "B-", IF(G21&gt;=64, "C+", IF(G21&gt;=61, "C", IF(G21&gt;=60, "C-", "F")))))))))</f>
+        <v>B-</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1145,26 +1489,30 @@
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1">
         <f xml:space="preserve"> ROUND((B22 * 1), 2)</f>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1">
-        <f>C22 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="E22" s="1">
-        <f>IF(AND(OR(B22=100), D22&gt;99.49), 100, IF(AND(B22&lt;100, D22&gt;99.49), 99,  IF(OR(AND(D22&gt;49.9, D22&lt;=59.49), D22&gt;=59.5), IF(D22&gt;=59.5, IF(D22+1&gt;99.49, 99, D22+1), 60), IF(OR(B22=0), 0, D22))))</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
       <c r="F22" s="1">
-        <f>ROUND(E22,0)</f>
-        <v>64</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f>IF(F22&gt;=92, "A+", IF(F22&gt;=86, "A", IF(F22&gt;=80, "A-", IF(F22&gt;=76, "B+", IF(F22&gt;=72, "B", IF(F22&gt;=68, "B-", IF(F22&gt;=64, "C+", IF(F22&gt;=61, "C", IF(F22&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="G22" s="1">
+        <f>ROUND(F22,0)</f>
+        <v>66</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f>IF(G22&gt;=92, "A+", IF(G22&gt;=86, "A", IF(G22&gt;=80, "A-", IF(G22&gt;=76, "B+", IF(G22&gt;=72, "B", IF(G22&gt;=68, "B-", IF(G22&gt;=64, "C+", IF(G22&gt;=61, "C", IF(G22&gt;=60, "C-", "F")))))))))</f>
         <v>C+</v>
       </c>
     </row>
@@ -1173,27 +1521,31 @@
         <v>14</v>
       </c>
       <c r="B23" s="1">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1">
         <f xml:space="preserve"> ROUND((B23 * 1), 2)</f>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1">
-        <f>C23 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="E23" s="1">
-        <f>IF(AND(OR(B23=100), D23&gt;99.49), 100, IF(AND(B23&lt;100, D23&gt;99.49), 99,  IF(OR(AND(D23&gt;49.9, D23&lt;=59.49), D23&gt;=59.5), IF(D23&gt;=59.5, IF(D23+1&gt;99.49, 99, D23+1), 60), IF(OR(B23=0), 0, D23))))</f>
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="F23" s="1">
-        <f>ROUND(E23,0)</f>
-        <v>63</v>
-      </c>
-      <c r="G23" s="1" t="str">
-        <f>IF(F23&gt;=92, "A+", IF(F23&gt;=86, "A", IF(F23&gt;=80, "A-", IF(F23&gt;=76, "B+", IF(F23&gt;=72, "B", IF(F23&gt;=68, "B-", IF(F23&gt;=64, "C+", IF(F23&gt;=61, "C", IF(F23&gt;=60, "C-", "F")))))))))</f>
-        <v>C</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="G23" s="1">
+        <f>ROUND(F23,0)</f>
+        <v>65</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f>IF(G23&gt;=92, "A+", IF(G23&gt;=86, "A", IF(G23&gt;=80, "A-", IF(G23&gt;=76, "B+", IF(G23&gt;=72, "B", IF(G23&gt;=68, "B-", IF(G23&gt;=64, "C+", IF(G23&gt;=61, "C", IF(G23&gt;=60, "C-", "F")))))))))</f>
+        <v>C+</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1201,27 +1553,31 @@
         <v>29</v>
       </c>
       <c r="B24" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1">
         <f xml:space="preserve"> ROUND((B24 * 1), 2)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1">
-        <f>C24 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="E24" s="1">
-        <f>IF(AND(OR(B24=100), D24&gt;99.49), 100, IF(AND(B24&lt;100, D24&gt;99.49), 99,  IF(OR(AND(D24&gt;49.9, D24&lt;=59.49), D24&gt;=59.5), IF(D24&gt;=59.5, IF(D24+1&gt;99.49, 99, D24+1), 60), IF(OR(B24=0), 0, D24))))</f>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="F24" s="1">
-        <f>ROUND(E24,0)</f>
-        <v>62</v>
-      </c>
-      <c r="G24" s="1" t="str">
-        <f>IF(F24&gt;=92, "A+", IF(F24&gt;=86, "A", IF(F24&gt;=80, "A-", IF(F24&gt;=76, "B+", IF(F24&gt;=72, "B", IF(F24&gt;=68, "B-", IF(F24&gt;=64, "C+", IF(F24&gt;=61, "C", IF(F24&gt;=60, "C-", "F")))))))))</f>
-        <v>C</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="G24" s="1">
+        <f>ROUND(F24,0)</f>
+        <v>64</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f>IF(G24&gt;=92, "A+", IF(G24&gt;=86, "A", IF(G24&gt;=80, "A-", IF(G24&gt;=76, "B+", IF(G24&gt;=72, "B", IF(G24&gt;=68, "B-", IF(G24&gt;=64, "C+", IF(G24&gt;=61, "C", IF(G24&gt;=60, "C-", "F")))))))))</f>
+        <v>C+</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1229,27 +1585,31 @@
         <v>21</v>
       </c>
       <c r="B25" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1">
         <f xml:space="preserve"> ROUND((B25 * 1), 2)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1">
-        <f>C25 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="E25" s="1">
-        <f>IF(AND(OR(B25=100), D25&gt;99.49), 100, IF(AND(B25&lt;100, D25&gt;99.49), 99,  IF(OR(AND(D25&gt;49.9, D25&lt;=59.49), D25&gt;=59.5), IF(D25&gt;=59.5, IF(D25+1&gt;99.49, 99, D25+1), 60), IF(OR(B25=0), 0, D25))))</f>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
       <c r="F25" s="1">
-        <f>ROUND(E25,0)</f>
-        <v>62</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <f>IF(F25&gt;=92, "A+", IF(F25&gt;=86, "A", IF(F25&gt;=80, "A-", IF(F25&gt;=76, "B+", IF(F25&gt;=72, "B", IF(F25&gt;=68, "B-", IF(F25&gt;=64, "C+", IF(F25&gt;=61, "C", IF(F25&gt;=60, "C-", "F")))))))))</f>
-        <v>C</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="G25" s="1">
+        <f>ROUND(F25,0)</f>
+        <v>64</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>IF(G25&gt;=92, "A+", IF(G25&gt;=86, "A", IF(G25&gt;=80, "A-", IF(G25&gt;=76, "B+", IF(G25&gt;=72, "B", IF(G25&gt;=68, "B-", IF(G25&gt;=64, "C+", IF(G25&gt;=61, "C", IF(G25&gt;=60, "C-", "F")))))))))</f>
+        <v>C+</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1257,27 +1617,31 @@
         <v>13</v>
       </c>
       <c r="B26" s="1">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1">
         <f xml:space="preserve"> ROUND((B26 * 1), 2)</f>
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1">
-        <f>C26 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="E26" s="1">
-        <f>IF(AND(OR(B26=100), D26&gt;99.49), 100, IF(AND(B26&lt;100, D26&gt;99.49), 99,  IF(OR(AND(D26&gt;49.9, D26&lt;=59.49), D26&gt;=59.5), IF(D26&gt;=59.5, IF(D26+1&gt;99.49, 99, D26+1), 60), IF(OR(B26=0), 0, D26))))</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
       <c r="F26" s="1">
-        <f>ROUND(E26,0)</f>
-        <v>60</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f>IF(F26&gt;=92, "A+", IF(F26&gt;=86, "A", IF(F26&gt;=80, "A-", IF(F26&gt;=76, "B+", IF(F26&gt;=72, "B", IF(F26&gt;=68, "B-", IF(F26&gt;=64, "C+", IF(F26&gt;=61, "C", IF(F26&gt;=60, "C-", "F")))))))))</f>
-        <v>C-</v>
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="G26" s="1">
+        <f>ROUND(F26,0)</f>
+        <v>62</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f>IF(G26&gt;=92, "A+", IF(G26&gt;=86, "A", IF(G26&gt;=80, "A-", IF(G26&gt;=76, "B+", IF(G26&gt;=72, "B", IF(G26&gt;=68, "B-", IF(G26&gt;=64, "C+", IF(G26&gt;=61, "C", IF(G26&gt;=60, "C-", "F")))))))))</f>
+        <v>C</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1285,26 +1649,30 @@
         <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1">
         <f xml:space="preserve"> ROUND((B27 * 1), 2)</f>
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1">
-        <f>C27 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>54</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="E27" s="1">
-        <f>IF(AND(OR(B27=100), D27&gt;99.49), 100, IF(AND(B27&lt;100, D27&gt;99.49), 99,  IF(OR(AND(D27&gt;49.9, D27&lt;=59.49), D27&gt;=59.5), IF(D27&gt;=59.5, IF(D27+1&gt;99.49, 99, D27+1), 60), IF(OR(B27=0), 0, D27))))</f>
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F27" s="1">
-        <f>ROUND(E27,0)</f>
+      <c r="G27" s="1">
+        <f>ROUND(F27,0)</f>
         <v>60</v>
       </c>
-      <c r="G27" s="1" t="str">
-        <f>IF(F27&gt;=92, "A+", IF(F27&gt;=86, "A", IF(F27&gt;=80, "A-", IF(F27&gt;=76, "B+", IF(F27&gt;=72, "B", IF(F27&gt;=68, "B-", IF(F27&gt;=64, "C+", IF(F27&gt;=61, "C", IF(F27&gt;=60, "C-", "F")))))))))</f>
+      <c r="H27" s="1" t="str">
+        <f>IF(G27&gt;=92, "A+", IF(G27&gt;=86, "A", IF(G27&gt;=80, "A-", IF(G27&gt;=76, "B+", IF(G27&gt;=72, "B", IF(G27&gt;=68, "B-", IF(G27&gt;=64, "C+", IF(G27&gt;=61, "C", IF(G27&gt;=60, "C-", "F")))))))))</f>
         <v>C-</v>
       </c>
     </row>
@@ -1313,26 +1681,30 @@
         <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1">
         <f xml:space="preserve"> ROUND((B28 * 1), 2)</f>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1">
-        <f>C28 + (IF($C$29 &lt; 75.19, 75.19, $C$29) - $C$29)</f>
-        <v>52</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="E28" s="1">
-        <f>IF(AND(OR(B28=100), D28&gt;99.49), 100, IF(AND(B28&lt;100, D28&gt;99.49), 99,  IF(OR(AND(D28&gt;49.9, D28&lt;=59.49), D28&gt;=59.5), IF(D28&gt;=59.5, IF(D28+1&gt;99.49, 99, D28+1), 60), IF(OR(B28=0), 0, D28))))</f>
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F28" s="1">
-        <f>ROUND(E28,0)</f>
+      <c r="G28" s="1">
+        <f>ROUND(F28,0)</f>
         <v>60</v>
       </c>
-      <c r="G28" s="1" t="str">
-        <f>IF(F28&gt;=92, "A+", IF(F28&gt;=86, "A", IF(F28&gt;=80, "A-", IF(F28&gt;=76, "B+", IF(F28&gt;=72, "B", IF(F28&gt;=68, "B-", IF(F28&gt;=64, "C+", IF(F28&gt;=61, "C", IF(F28&gt;=60, "C-", "F")))))))))</f>
+      <c r="H28" s="1" t="str">
+        <f>IF(G28&gt;=92, "A+", IF(G28&gt;=86, "A", IF(G28&gt;=80, "A-", IF(G28&gt;=76, "B+", IF(G28&gt;=72, "B", IF(G28&gt;=68, "B-", IF(G28&gt;=64, "C+", IF(G28&gt;=61, "C", IF(G28&gt;=60, "C-", "F")))))))))</f>
         <v>C-</v>
       </c>
     </row>
@@ -1341,38 +1713,42 @@
         <v>8</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ref="B29:D29" si="0">ROUND(AVERAGE(B2:B28),2)</f>
-        <v>59.19</v>
+        <f>ROUND(AVERAGE(B2:B28),2)</f>
+        <v>68.040000000000006</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
-        <v>59.19</v>
+        <f t="shared" ref="B29:C29" si="5">ROUND(AVERAGE(C2:C28),2)</f>
+        <v>68.040000000000006</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>75.19</v>
+        <f>ROUND(AVERAGE(D2:D28),2)</f>
+        <v>75.040000000000006</v>
       </c>
       <c r="E29" s="1">
         <f>ROUND(AVERAGE(E2:E28),2)</f>
-        <v>75.7</v>
+        <v>76.040000000000006</v>
       </c>
       <c r="F29" s="1">
         <f>ROUND(AVERAGE(F2:F28),2)</f>
-        <v>75.7</v>
-      </c>
-      <c r="G29" s="1" t="str">
-        <f>IF(F29&gt;=90, "A+", IF(F29&gt;=86, "A", IF(F29&gt;=80, "A-", IF(F29&gt;=77, "B+", IF(F29&gt;=73, "B", IF(F29&gt;=70, "B-", IF(F29&gt;=67, "C+", IF(F29&gt;=63, "C", IF(F29&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <v>77.040000000000006</v>
+      </c>
+      <c r="G29" s="1">
+        <f>ROUND(AVERAGE(G2:G28),2)</f>
+        <v>77.040000000000006</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>IF(G29&gt;=90, "A+", IF(G29&gt;=86, "A", IF(G29&gt;=80, "A-", IF(G29&gt;=77, "B+", IF(G29&gt;=73, "B", IF(G29&gt;=70, "B-", IF(G29&gt;=67, "C+", IF(G29&gt;=63, "C", IF(G29&gt;=60, "C-", "F")))))))))</f>
+        <v>B+</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
-    <sortCondition descending="1" ref="D2:D28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H28">
+    <sortCondition descending="1" ref="E2:E28"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F2:G28">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>OR($F2&lt;60, TRIM($G2)="F")</formula>
+  <conditionalFormatting sqref="G2:H28">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>OR($G2&lt;60, TRIM($H2)="F")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/grade/grade.xlsx
+++ b/grade/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/github/ccp/grade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F267432-37C5-0444-80BB-6FF15700B24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4475AB2-BCDC-2249-A71D-AC1D49F33230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="600" windowWidth="24800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,14 +210,6 @@
   </si>
   <si>
     <t>60 - 69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +591,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -628,15 +620,6 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
@@ -645,44 +628,33 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1">
-        <f xml:space="preserve"> ROUND((B2 * 1), 2)</f>
-        <v>91</v>
+        <f t="shared" ref="C2:C28" si="0" xml:space="preserve"> ROUND((B2 * 1), 2)</f>
+        <v>96</v>
       </c>
       <c r="D2" s="1">
-        <f>C2 + (IF($C$29 &lt; 75.04, 75.04, $C$29) - $C$29)</f>
-        <v>98</v>
+        <f>C2 + (IF($C$29 &lt; 77.67, 77.67, $C$29) - $C$29)</f>
+        <v>96</v>
       </c>
       <c r="E2" s="1">
         <f>IF(D2&lt;&gt;"", IF(MAX(D:D)&lt;99, D2+(99-MAX(D:D)), D2), "")</f>
         <v>99</v>
       </c>
       <c r="F2" s="1">
-        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;54.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
+        <f>IF(AND(OR(B2=100), E2&gt;99.49), 100, IF(AND(B2&lt;100, E2&gt;99.49), 99,  IF(OR(AND(E2&gt;56.5, E2&lt;=59.49), E2&gt;=59.5), IF(E2&gt;=59.5, IF(E2+1&gt;99.49, 99, E2+1), 60), IF(OR(B2=0), 0, E2))))</f>
         <v>99</v>
       </c>
       <c r="G2" s="1">
-        <f>ROUND(F2,0)</f>
+        <f t="shared" ref="G2:G28" si="1">ROUND(F2,0)</f>
         <v>99</v>
       </c>
       <c r="H2" s="1" t="str">
-        <f>IF(G2&gt;=92, "A+", IF(G2&gt;=86, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=76, "B+", IF(G2&gt;=72, "B", IF(G2&gt;=68, "B-", IF(G2&gt;=64, "C+", IF(G2&gt;=61, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
+        <f>IF(G2&gt;=90, "A+", IF(G2&gt;=85, "A", IF(G2&gt;=80, "A-", IF(G2&gt;=75, "B+", IF(G2&gt;=70, "B", IF(G2&gt;=65, "B-", IF(G2&gt;=63, "C+", IF(G2&gt;=61, "C", IF(G2&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="1">
-        <v>100</v>
-      </c>
-      <c r="K2" s="1">
-        <f>COUNTIF(G2:G28, "&gt;=100")</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <f>ROUND(K2/SUM($K$2:$K$7), 2) * 100 &amp; "%"</f>
-        <v>0%</v>
-      </c>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
@@ -690,42 +662,34 @@
         <v>23</v>
       </c>
       <c r="B3" s="1">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1">
-        <f xml:space="preserve"> ROUND((B3 * 1), 2)</f>
-        <v>88</v>
+        <f t="shared" si="0"/>
+        <v>94</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D28" si="0">C3 + (IF($C$29 &lt; 75.04, 75.04, $C$29) - $C$29)</f>
-        <v>95</v>
+        <f t="shared" ref="D3:D28" si="2">C3 + (IF($C$29 &lt; 76.59, 76.59, $C$29) - $C$29)</f>
+        <v>94</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E28" si="1">IF(D3&lt;&gt;"", IF(MAX(D:D)&lt;99, D3+(99-MAX(D:D)), D3), "")</f>
-        <v>96</v>
+        <f t="shared" ref="E3:E28" si="3">IF(D3&lt;&gt;"", IF(MAX(D:D)&lt;99, D3+(99-MAX(D:D)), D3), "")</f>
+        <v>97</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F28" si="2">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;54.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
-        <v>97</v>
+        <f t="shared" ref="F3:F28" si="4">IF(AND(OR(B3=100), E3&gt;99.49), 100, IF(AND(B3&lt;100, E3&gt;99.49), 99,  IF(OR(AND(E3&gt;56.5, E3&lt;=59.49), E3&gt;=59.5), IF(E3&gt;=59.5, IF(E3+1&gt;99.49, 99, E3+1), 60), IF(OR(B3=0), 0, E3))))</f>
+        <v>98</v>
       </c>
       <c r="G3" s="1">
-        <f>ROUND(F3,0)</f>
-        <v>97</v>
+        <f t="shared" si="1"/>
+        <v>98</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>IF(G3&gt;=92, "A+", IF(G3&gt;=86, "A", IF(G3&gt;=80, "A-", IF(G3&gt;=76, "B+", IF(G3&gt;=72, "B", IF(G3&gt;=68, "B-", IF(G3&gt;=64, "C+", IF(G3&gt;=61, "C", IF(G3&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" ref="H3:H28" si="5">IF(G3&gt;=90, "A+", IF(G3&gt;=85, "A", IF(G3&gt;=80, "A-", IF(G3&gt;=75, "B+", IF(G3&gt;=70, "B", IF(G3&gt;=65, "B-", IF(G3&gt;=63, "C+", IF(G3&gt;=61, "C", IF(G3&gt;=60, "C-", "F")))))))))</f>
         <v>A+</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="1">
-        <f>COUNTIFS(G2:G28, "&gt;=90", G2:G28, "&lt;100")</f>
-        <v>5</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <f>ROUND(K3/SUM($K$2:$K$7), 2) * 100 &amp; "%"</f>
-        <v>19%</v>
+        <v>1</v>
       </c>
       <c r="O3" s="3"/>
     </row>
@@ -734,42 +698,42 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1">
-        <f xml:space="preserve"> ROUND((B4 * 1), 2)</f>
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>93</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>93</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
-        <v>91</v>
+        <f t="shared" si="3"/>
+        <v>96</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="2"/>
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>97</v>
       </c>
       <c r="G4" s="1">
-        <f>ROUND(F4,0)</f>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>97</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>IF(G4&gt;=92, "A+", IF(G4&gt;=86, "A", IF(G4&gt;=80, "A-", IF(G4&gt;=76, "B+", IF(G4&gt;=72, "B", IF(G4&gt;=68, "B-", IF(G4&gt;=64, "C+", IF(G4&gt;=61, "C", IF(G4&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>A+</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
+      <c r="J4" s="1">
+        <v>100</v>
       </c>
       <c r="K4" s="1">
-        <f>COUNTIFS(G2:G28, "&gt;=80", G2:G28, "&lt;90")</f>
-        <v>7</v>
+        <f>COUNTIF(G2:G28, "&gt;=100")</f>
+        <v>0</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f>ROUND(K4/SUM($K$2:$K$7), 2) * 100 &amp; "%"</f>
-        <v>26%</v>
+        <f>ROUND(K4/SUM($K$4:$K$9), 2) * 100 &amp; "%"</f>
+        <v>0%</v>
       </c>
       <c r="O4" s="3"/>
     </row>
@@ -778,42 +742,42 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1">
-        <f xml:space="preserve"> ROUND((B5 * 1), 2)</f>
-        <v>82</v>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>89</v>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="2"/>
-        <v>91</v>
+        <f t="shared" si="4"/>
+        <v>96</v>
       </c>
       <c r="G5" s="1">
-        <f>ROUND(F5,0)</f>
-        <v>91</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>IF(G5&gt;=92, "A+", IF(G5&gt;=86, "A", IF(G5&gt;=80, "A-", IF(G5&gt;=76, "B+", IF(G5&gt;=72, "B", IF(G5&gt;=68, "B-", IF(G5&gt;=64, "C+", IF(G5&gt;=61, "C", IF(G5&gt;=60, "C-", "F")))))))))</f>
-        <v>A</v>
+        <f t="shared" si="5"/>
+        <v>A+</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K5" s="1">
-        <f>COUNTIFS(G2:G28, "&gt;=70", G2:G28, "&lt;80")</f>
-        <v>6</v>
+        <f>COUNTIFS(G2:G28, "&gt;=90", G2:G28, "&lt;100")</f>
+        <v>8</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f>ROUND(K5/SUM($K$2:$K$7), 2) * 100 &amp; "%"</f>
-        <v>22%</v>
+        <f>ROUND(K5/SUM($K$4:$K$9), 2) * 100 &amp; "%"</f>
+        <v>30%</v>
       </c>
       <c r="O5" s="3"/>
     </row>
@@ -822,42 +786,42 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1">
-        <f xml:space="preserve"> ROUND((B6 * 1), 2)</f>
-        <v>82</v>
+        <f t="shared" si="0"/>
+        <v>91</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>89</v>
+        <f t="shared" si="2"/>
+        <v>91</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>94</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>91</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
       </c>
       <c r="G6" s="1">
-        <f>ROUND(F6,0)</f>
-        <v>91</v>
+        <f t="shared" si="1"/>
+        <v>95</v>
       </c>
       <c r="H6" s="1" t="str">
-        <f>IF(G6&gt;=92, "A+", IF(G6&gt;=86, "A", IF(G6&gt;=80, "A-", IF(G6&gt;=76, "B+", IF(G6&gt;=72, "B", IF(G6&gt;=68, "B-", IF(G6&gt;=64, "C+", IF(G6&gt;=61, "C", IF(G6&gt;=60, "C-", "F")))))))))</f>
-        <v>A</v>
+        <f t="shared" si="5"/>
+        <v>A+</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6" s="1">
-        <f>COUNTIFS(G2:G28, "&gt;=60", G2:G28, "&lt;70")</f>
-        <v>9</v>
+        <f>COUNTIFS(G2:G28, "&gt;=80", G2:G28, "&lt;90")</f>
+        <v>4</v>
       </c>
       <c r="L6" s="1" t="str">
-        <f>ROUND(K6/SUM($K$2:$K$7), 2) * 100 &amp; "%"</f>
-        <v>33%</v>
+        <f>ROUND(K6/SUM($K$4:$K$9), 2) * 100 &amp; "%"</f>
+        <v>15%</v>
       </c>
       <c r="O6" s="3"/>
     </row>
@@ -866,42 +830,42 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1">
-        <f xml:space="preserve"> ROUND((B7 * 1), 2)</f>
-        <v>79</v>
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>86</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>87</v>
+        <f t="shared" si="3"/>
+        <v>93</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="2"/>
-        <v>88</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="G7" s="1">
-        <f>ROUND(F7,0)</f>
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>IF(G7&gt;=92, "A+", IF(G7&gt;=86, "A", IF(G7&gt;=80, "A-", IF(G7&gt;=76, "B+", IF(G7&gt;=72, "B", IF(G7&gt;=68, "B-", IF(G7&gt;=64, "C+", IF(G7&gt;=61, "C", IF(G7&gt;=60, "C-", "F")))))))))</f>
-        <v>A</v>
+        <f t="shared" si="5"/>
+        <v>A+</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K7" s="1">
-        <f>COUNTIFS(G2:G28, "&gt;=0", G2:G28, "&lt;60")</f>
-        <v>0</v>
+        <f>COUNTIFS(G2:G28, "&gt;=70", G2:G28, "&lt;80")</f>
+        <v>12</v>
       </c>
       <c r="L7" s="1" t="str">
-        <f>ROUND(K7/SUM($K$2:$K$7), 2) * 100 &amp; "%"</f>
-        <v>0%</v>
+        <f>ROUND(K7/SUM($K$4:$K$9), 2) * 100 &amp; "%"</f>
+        <v>44%</v>
       </c>
       <c r="O7" s="3"/>
     </row>
@@ -910,31 +874,42 @@
         <v>22</v>
       </c>
       <c r="B8" s="1">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1">
-        <f xml:space="preserve"> ROUND((B8 * 1), 2)</f>
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>88</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <f t="shared" si="3"/>
+        <v>91</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="2"/>
-        <v>87</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="G8" s="1">
-        <f>ROUND(F8,0)</f>
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>92</v>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IF(G8&gt;=92, "A+", IF(G8&gt;=86, "A", IF(G8&gt;=80, "A-", IF(G8&gt;=76, "B+", IF(G8&gt;=72, "B", IF(G8&gt;=68, "B-", IF(G8&gt;=64, "C+", IF(G8&gt;=61, "C", IF(G8&gt;=60, "C-", "F")))))))))</f>
-        <v>A</v>
+        <f t="shared" si="5"/>
+        <v>A+</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1">
+        <f>COUNTIFS(G2:G28, "&gt;=60", G2:G28, "&lt;70")</f>
+        <v>3</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f>ROUND(K8/SUM($K$4:$K$9), 2) * 100 &amp; "%"</f>
+        <v>11%</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -942,40 +917,42 @@
         <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1">
-        <f xml:space="preserve"> ROUND((B9 * 1), 2)</f>
-        <v>77</v>
+        <f t="shared" si="0"/>
+        <v>86</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>84</v>
+        <f t="shared" si="2"/>
+        <v>86</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f t="shared" si="3"/>
+        <v>89</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="2"/>
-        <v>86</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="G9" s="1">
-        <f>ROUND(F9,0)</f>
-        <v>86</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IF(G9&gt;=92, "A+", IF(G9&gt;=86, "A", IF(G9&gt;=80, "A-", IF(G9&gt;=76, "B+", IF(G9&gt;=72, "B", IF(G9&gt;=68, "B-", IF(G9&gt;=64, "C+", IF(G9&gt;=61, "C", IF(G9&gt;=60, "C-", "F")))))))))</f>
-        <v>A</v>
+        <f t="shared" si="5"/>
+        <v>A+</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="K9" s="1">
+        <f>COUNTIFS(G2:G28, "&gt;=0", G2:G28, "&lt;60")</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f>ROUND(K9/SUM($K$4:$K$9), 2) * 100 &amp; "%"</f>
+        <v>0%</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -985,42 +962,31 @@
         <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1">
-        <f xml:space="preserve"> ROUND((B10 * 1), 2)</f>
-        <v>76</v>
+        <f t="shared" si="0"/>
+        <v>83</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
+        <f t="shared" si="3"/>
+        <v>86</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="2"/>
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>87</v>
       </c>
       <c r="G10" s="1">
-        <f>ROUND(F10,0)</f>
-        <v>85</v>
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IF(G10&gt;=92, "A+", IF(G10&gt;=86, "A", IF(G10&gt;=80, "A-", IF(G10&gt;=76, "B+", IF(G10&gt;=72, "B", IF(G10&gt;=68, "B-", IF(G10&gt;=64, "C+", IF(G10&gt;=61, "C", IF(G10&gt;=60, "C-", "F")))))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="1">
-        <f>COUNTIF(H2:H28, J10)</f>
-        <v>3</v>
-      </c>
-      <c r="L10" s="1" t="str">
-        <f>ROUND(K10/SUM($K$10:$K$19), 2) * 100 &amp; "%"</f>
-        <v>11%</v>
+        <f t="shared" si="5"/>
+        <v>A</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -1029,42 +995,31 @@
         <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1">
-        <f xml:space="preserve"> ROUND((B11 * 1), 2)</f>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>81</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>82</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <f t="shared" si="3"/>
+        <v>84</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="2"/>
-        <v>84</v>
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
       <c r="G11" s="1">
-        <f>ROUND(F11,0)</f>
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>85</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IF(G11&gt;=92, "A+", IF(G11&gt;=86, "A", IF(G11&gt;=80, "A-", IF(G11&gt;=76, "B+", IF(G11&gt;=72, "B", IF(G11&gt;=68, "B-", IF(G11&gt;=64, "C+", IF(G11&gt;=61, "C", IF(G11&gt;=60, "C-", "F")))))))))</f>
-        <v>A-</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" ref="K11:K19" si="3">COUNTIF(H3:H29, J11)</f>
-        <v>5</v>
-      </c>
-      <c r="L11" s="1" t="str">
-        <f t="shared" ref="L11:L19" si="4">ROUND(K11/SUM($K$10:$K$19), 2) * 100 &amp; "%"</f>
-        <v>18%</v>
+        <f t="shared" si="5"/>
+        <v>A</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -1073,42 +1028,34 @@
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1">
-        <f xml:space="preserve"> ROUND((B12 * 1), 2)</f>
-        <v>72</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>83</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="2"/>
-        <v>81</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
       </c>
       <c r="G12" s="1">
-        <f>ROUND(F12,0)</f>
-        <v>81</v>
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f>IF(G12&gt;=92, "A+", IF(G12&gt;=86, "A", IF(G12&gt;=80, "A-", IF(G12&gt;=76, "B+", IF(G12&gt;=72, "B", IF(G12&gt;=68, "B-", IF(G12&gt;=64, "C+", IF(G12&gt;=61, "C", IF(G12&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>A-</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>14%</v>
+        <v>7</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -1117,42 +1064,42 @@
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1">
-        <f xml:space="preserve"> ROUND((B13 * 1), 2)</f>
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>78</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f t="shared" si="3"/>
+        <v>81</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>82</v>
       </c>
       <c r="G13" s="1">
-        <f>ROUND(F13,0)</f>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>82</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF(G13&gt;=92, "A+", IF(G13&gt;=86, "A", IF(G13&gt;=80, "A-", IF(G13&gt;=76, "B+", IF(G13&gt;=72, "B", IF(G13&gt;=68, "B-", IF(G13&gt;=64, "C+", IF(G13&gt;=61, "C", IF(G13&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>A-</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>COUNTIF(H2:H28, J13)</f>
+        <v>8</v>
       </c>
       <c r="L13" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>7%</v>
+        <f>ROUND(K13/SUM($K$13:$K$22), 2) * 100 &amp; "%"</f>
+        <v>29%</v>
       </c>
       <c r="O13" s="3"/>
     </row>
@@ -1161,42 +1108,42 @@
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1">
-        <f xml:space="preserve"> ROUND((B14 * 1), 2)</f>
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>74</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>78</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="2"/>
-        <v>76</v>
+        <f t="shared" si="4"/>
+        <v>79</v>
       </c>
       <c r="G14" s="1">
-        <f>ROUND(F14,0)</f>
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>79</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF(G14&gt;=92, "A+", IF(G14&gt;=86, "A", IF(G14&gt;=80, "A-", IF(G14&gt;=76, "B+", IF(G14&gt;=72, "B", IF(G14&gt;=68, "B-", IF(G14&gt;=64, "C+", IF(G14&gt;=61, "C", IF(G14&gt;=60, "C-", "F")))))))))</f>
+        <f t="shared" si="5"/>
         <v>B+</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>COUNTIF(H3:H29, J14)</f>
+        <v>2</v>
       </c>
       <c r="L14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>14%</v>
+        <f>ROUND(K14/SUM($K$13:$K$22), 2) * 100 &amp; "%"</f>
+        <v>7%</v>
       </c>
       <c r="O14" s="3"/>
     </row>
@@ -1205,41 +1152,41 @@
         <v>17</v>
       </c>
       <c r="B15" s="1">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1">
-        <f xml:space="preserve"> ROUND((B15 * 1), 2)</f>
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>74</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>73</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <f t="shared" si="3"/>
+        <v>77</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>78</v>
       </c>
       <c r="G15" s="1">
-        <f>ROUND(F15,0)</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF(G15&gt;=92, "A+", IF(G15&gt;=86, "A", IF(G15&gt;=80, "A-", IF(G15&gt;=76, "B+", IF(G15&gt;=72, "B", IF(G15&gt;=68, "B-", IF(G15&gt;=64, "C+", IF(G15&gt;=61, "C", IF(G15&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <f t="shared" si="5"/>
+        <v>B+</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(H4:H30, J15)</f>
         <v>3</v>
       </c>
       <c r="L15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>ROUND(K15/SUM($K$13:$K$22), 2) * 100 &amp; "%"</f>
         <v>11%</v>
       </c>
       <c r="O15" s="3"/>
@@ -1249,42 +1196,42 @@
         <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1">
-        <f xml:space="preserve"> ROUND((B16 * 1), 2)</f>
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <f t="shared" si="3"/>
+        <v>76</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
       <c r="G16" s="1">
-        <f>ROUND(F16,0)</f>
-        <v>75</v>
+        <f t="shared" si="1"/>
+        <v>77</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF(G16&gt;=92, "A+", IF(G16&gt;=86, "A", IF(G16&gt;=80, "A-", IF(G16&gt;=76, "B+", IF(G16&gt;=72, "B", IF(G16&gt;=68, "B-", IF(G16&gt;=64, "C+", IF(G16&gt;=61, "C", IF(G16&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <f t="shared" si="5"/>
+        <v>B+</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>COUNTIF(H5:H31, J16)</f>
+        <v>7</v>
       </c>
       <c r="L16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>14%</v>
+        <f>ROUND(K16/SUM($K$13:$K$22), 2) * 100 &amp; "%"</f>
+        <v>25%</v>
       </c>
       <c r="O16" s="3"/>
     </row>
@@ -1293,42 +1240,42 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1">
-        <f xml:space="preserve"> ROUND((B17 * 1), 2)</f>
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>73</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>76</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>72</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
       <c r="G17" s="1">
-        <f>ROUND(F17,0)</f>
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>77</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF(G17&gt;=92, "A+", IF(G17&gt;=86, "A", IF(G17&gt;=80, "A-", IF(G17&gt;=76, "B+", IF(G17&gt;=72, "B", IF(G17&gt;=68, "B-", IF(G17&gt;=64, "C+", IF(G17&gt;=61, "C", IF(G17&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <f t="shared" si="5"/>
+        <v>B+</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>COUNTIF(H6:H32, J17)</f>
+        <v>5</v>
       </c>
       <c r="L17" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>4%</v>
+        <f>ROUND(K17/SUM($K$13:$K$22), 2) * 100 &amp; "%"</f>
+        <v>18%</v>
       </c>
       <c r="O17" s="3"/>
     </row>
@@ -1337,42 +1284,42 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1">
-        <f xml:space="preserve"> ROUND((B18 * 1), 2)</f>
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>72</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
       <c r="G18" s="1">
-        <f>ROUND(F18,0)</f>
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF(G18&gt;=92, "A+", IF(G18&gt;=86, "A", IF(G18&gt;=80, "A-", IF(G18&gt;=76, "B+", IF(G18&gt;=72, "B", IF(G18&gt;=68, "B-", IF(G18&gt;=64, "C+", IF(G18&gt;=61, "C", IF(G18&gt;=60, "C-", "F")))))))))</f>
-        <v>B</v>
+        <f t="shared" si="5"/>
+        <v>B+</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>COUNTIF(H7:H33, J18)</f>
+        <v>3</v>
       </c>
       <c r="L18" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>7%</v>
+        <f>ROUND(K18/SUM($K$13:$K$22), 2) * 100 &amp; "%"</f>
+        <v>11%</v>
       </c>
       <c r="O18" s="3"/>
     </row>
@@ -1381,41 +1328,41 @@
         <v>24</v>
       </c>
       <c r="B19" s="1">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1">
-        <f xml:space="preserve"> ROUND((B19 * 1), 2)</f>
-        <v>62</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>71</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
       <c r="G19" s="1">
-        <f>ROUND(F19,0)</f>
-        <v>71</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF(G19&gt;=92, "A+", IF(G19&gt;=86, "A", IF(G19&gt;=80, "A-", IF(G19&gt;=76, "B+", IF(G19&gt;=72, "B", IF(G19&gt;=68, "B-", IF(G19&gt;=64, "C+", IF(G19&gt;=61, "C", IF(G19&gt;=60, "C-", "F")))))))))</f>
-        <v>B-</v>
+        <f t="shared" si="5"/>
+        <v>B+</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(H8:H34, J19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>ROUND(K19/SUM($K$13:$K$22), 2) * 100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="O19" s="3"/>
@@ -1425,31 +1372,42 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1">
-        <f xml:space="preserve"> ROUND((B20 * 1), 2)</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>71</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>67</v>
+        <f t="shared" si="2"/>
+        <v>71</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="2"/>
-        <v>69</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
       <c r="G20" s="1">
-        <f>ROUND(F20,0)</f>
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>75</v>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF(G20&gt;=92, "A+", IF(G20&gt;=86, "A", IF(G20&gt;=80, "A-", IF(G20&gt;=76, "B+", IF(G20&gt;=72, "B", IF(G20&gt;=68, "B-", IF(G20&gt;=64, "C+", IF(G20&gt;=61, "C", IF(G20&gt;=60, "C-", "F")))))))))</f>
-        <v>B-</v>
+        <f t="shared" si="5"/>
+        <v>B+</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="1">
+        <f>COUNTIF(H9:H35, J20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f>ROUND(K20/SUM($K$13:$K$22), 2) * 100 &amp; "%"</f>
+        <v>0%</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1457,31 +1415,42 @@
         <v>28</v>
       </c>
       <c r="B21" s="1">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1">
-        <f xml:space="preserve"> ROUND((B21 * 1), 2)</f>
-        <v>59</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>67</v>
+        <f t="shared" si="3"/>
+        <v>73</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="2"/>
-        <v>68</v>
+        <f t="shared" si="4"/>
+        <v>74</v>
       </c>
       <c r="G21" s="1">
-        <f>ROUND(F21,0)</f>
-        <v>68</v>
+        <f t="shared" si="1"/>
+        <v>74</v>
       </c>
       <c r="H21" s="1" t="str">
-        <f>IF(G21&gt;=92, "A+", IF(G21&gt;=86, "A", IF(G21&gt;=80, "A-", IF(G21&gt;=76, "B+", IF(G21&gt;=72, "B", IF(G21&gt;=68, "B-", IF(G21&gt;=64, "C+", IF(G21&gt;=61, "C", IF(G21&gt;=60, "C-", "F")))))))))</f>
-        <v>B-</v>
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="1">
+        <f>COUNTIF(H10:H36, J21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f>ROUND(K21/SUM($K$13:$K$22), 2) * 100 &amp; "%"</f>
+        <v>0%</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1489,31 +1458,42 @@
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1">
-        <f xml:space="preserve"> ROUND((B22 * 1), 2)</f>
-        <v>57</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <f t="shared" si="3"/>
+        <v>72</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="2"/>
-        <v>66</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
       <c r="G22" s="1">
-        <f>ROUND(F22,0)</f>
-        <v>66</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="H22" s="1" t="str">
-        <f>IF(G22&gt;=92, "A+", IF(G22&gt;=86, "A", IF(G22&gt;=80, "A-", IF(G22&gt;=76, "B+", IF(G22&gt;=72, "B", IF(G22&gt;=68, "B-", IF(G22&gt;=64, "C+", IF(G22&gt;=61, "C", IF(G22&gt;=60, "C-", "F")))))))))</f>
-        <v>C+</v>
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="1">
+        <f>COUNTIF(H11:H37, J22)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f>ROUND(K22/SUM($K$13:$K$22), 2) * 100 &amp; "%"</f>
+        <v>0%</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1521,31 +1501,31 @@
         <v>14</v>
       </c>
       <c r="B23" s="1">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1">
-        <f xml:space="preserve"> ROUND((B23 * 1), 2)</f>
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f t="shared" si="2"/>
+        <v>68</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="2"/>
-        <v>65</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="G23" s="1">
-        <f>ROUND(F23,0)</f>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f>IF(G23&gt;=92, "A+", IF(G23&gt;=86, "A", IF(G23&gt;=80, "A-", IF(G23&gt;=76, "B+", IF(G23&gt;=72, "B", IF(G23&gt;=68, "B-", IF(G23&gt;=64, "C+", IF(G23&gt;=61, "C", IF(G23&gt;=60, "C-", "F")))))))))</f>
-        <v>C+</v>
+        <f t="shared" si="5"/>
+        <v>B</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1553,31 +1533,31 @@
         <v>29</v>
       </c>
       <c r="B24" s="1">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1">
-        <f xml:space="preserve"> ROUND((B24 * 1), 2)</f>
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f t="shared" si="2"/>
+        <v>68</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f t="shared" si="3"/>
+        <v>71</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="G24" s="1">
-        <f>ROUND(F24,0)</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
       <c r="H24" s="1" t="str">
-        <f>IF(G24&gt;=92, "A+", IF(G24&gt;=86, "A", IF(G24&gt;=80, "A-", IF(G24&gt;=76, "B+", IF(G24&gt;=72, "B", IF(G24&gt;=68, "B-", IF(G24&gt;=64, "C+", IF(G24&gt;=61, "C", IF(G24&gt;=60, "C-", "F")))))))))</f>
-        <v>C+</v>
+        <f t="shared" si="5"/>
+        <v>B</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1585,31 +1565,31 @@
         <v>21</v>
       </c>
       <c r="B25" s="1">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1">
-        <f xml:space="preserve"> ROUND((B25 * 1), 2)</f>
-        <v>55</v>
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f t="shared" si="3"/>
+        <v>70</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
       <c r="G25" s="1">
-        <f>ROUND(F25,0)</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f>IF(G25&gt;=92, "A+", IF(G25&gt;=86, "A", IF(G25&gt;=80, "A-", IF(G25&gt;=76, "B+", IF(G25&gt;=72, "B", IF(G25&gt;=68, "B-", IF(G25&gt;=64, "C+", IF(G25&gt;=61, "C", IF(G25&gt;=60, "C-", "F")))))))))</f>
-        <v>C+</v>
+        <f t="shared" si="5"/>
+        <v>B</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1617,31 +1597,31 @@
         <v>13</v>
       </c>
       <c r="B26" s="1">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1">
-        <f xml:space="preserve"> ROUND((B26 * 1), 2)</f>
-        <v>53</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>61</v>
+        <f t="shared" si="3"/>
+        <v>68</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="2"/>
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
       <c r="G26" s="1">
-        <f>ROUND(F26,0)</f>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f>IF(G26&gt;=92, "A+", IF(G26&gt;=86, "A", IF(G26&gt;=80, "A-", IF(G26&gt;=76, "B+", IF(G26&gt;=72, "B", IF(G26&gt;=68, "B-", IF(G26&gt;=64, "C+", IF(G26&gt;=61, "C", IF(G26&gt;=60, "C-", "F")))))))))</f>
-        <v>C</v>
+        <f t="shared" si="5"/>
+        <v>B-</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1649,31 +1629,31 @@
         <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1">
-        <f xml:space="preserve"> ROUND((B27 * 1), 2)</f>
-        <v>51</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <f t="shared" si="3"/>
+        <v>68</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
       <c r="G27" s="1">
-        <f>ROUND(F27,0)</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f>IF(G27&gt;=92, "A+", IF(G27&gt;=86, "A", IF(G27&gt;=80, "A-", IF(G27&gt;=76, "B+", IF(G27&gt;=72, "B", IF(G27&gt;=68, "B-", IF(G27&gt;=64, "C+", IF(G27&gt;=61, "C", IF(G27&gt;=60, "C-", "F")))))))))</f>
-        <v>C-</v>
+        <f t="shared" si="5"/>
+        <v>B-</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1681,31 +1661,31 @@
         <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1">
-        <f xml:space="preserve"> ROUND((B28 * 1), 2)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>63</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>58</v>
+        <f t="shared" si="3"/>
+        <v>66</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>67</v>
       </c>
       <c r="G28" s="1">
-        <f>ROUND(F28,0)</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>67</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f>IF(G28&gt;=92, "A+", IF(G28&gt;=86, "A", IF(G28&gt;=80, "A-", IF(G28&gt;=76, "B+", IF(G28&gt;=72, "B", IF(G28&gt;=68, "B-", IF(G28&gt;=64, "C+", IF(G28&gt;=61, "C", IF(G28&gt;=60, "C-", "F")))))))))</f>
-        <v>C-</v>
+        <f t="shared" si="5"/>
+        <v>B-</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1714,31 +1694,31 @@
       </c>
       <c r="B29" s="1">
         <f>ROUND(AVERAGE(B2:B28),2)</f>
-        <v>68.040000000000006</v>
+        <v>77.67</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ref="B29:C29" si="5">ROUND(AVERAGE(C2:C28),2)</f>
-        <v>68.040000000000006</v>
+        <f t="shared" ref="C29:D29" si="6">ROUND(AVERAGE(C2:C28),2)</f>
+        <v>77.67</v>
       </c>
       <c r="D29" s="1">
-        <f>ROUND(AVERAGE(D2:D28),2)</f>
-        <v>75.040000000000006</v>
+        <f t="shared" si="6"/>
+        <v>77.67</v>
       </c>
       <c r="E29" s="1">
         <f>ROUND(AVERAGE(E2:E28),2)</f>
-        <v>76.040000000000006</v>
+        <v>80.67</v>
       </c>
       <c r="F29" s="1">
         <f>ROUND(AVERAGE(F2:F28),2)</f>
-        <v>77.040000000000006</v>
+        <v>81.63</v>
       </c>
       <c r="G29" s="1">
         <f>ROUND(AVERAGE(G2:G28),2)</f>
-        <v>77.040000000000006</v>
+        <v>81.63</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f>IF(G29&gt;=90, "A+", IF(G29&gt;=86, "A", IF(G29&gt;=80, "A-", IF(G29&gt;=77, "B+", IF(G29&gt;=73, "B", IF(G29&gt;=70, "B-", IF(G29&gt;=67, "C+", IF(G29&gt;=63, "C", IF(G29&gt;=60, "C-", "F")))))))))</f>
-        <v>B+</v>
+        <f t="shared" ref="H29" si="7">IF(G29&gt;=90, "A+", IF(G29&gt;=85, "A", IF(G29&gt;=80, "A-", IF(G29&gt;=77, "B+", IF(G29&gt;=73, "B", IF(G29&gt;=70, "B-", IF(G29&gt;=67, "C+", IF(G29&gt;=61, "C", IF(G29&gt;=60, "C-", "F")))))))))</f>
+        <v>A-</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1726,7 @@
     <sortCondition descending="1" ref="E2:E28"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:H28">
+  <conditionalFormatting sqref="G2:H2 G3:G28 H3:H29">
     <cfRule type="expression" dxfId="0" priority="6">
       <formula>OR($G2&lt;60, TRIM($H2)="F")</formula>
     </cfRule>
